--- a/היענות לתדר ותהודה/חלק ב היענות תדר ותהודה.xlsx
+++ b/היענות לתדר ותהודה/חלק ב היענות תדר ותהודה.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361174F6-C22C-4AFE-9965-87C3B0A6D8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30361B-D76F-493E-A155-AF580D42DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4366F9D-3FD2-41CA-ACA6-8E757F23B737}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
     <sheet name="Ramkol2" sheetId="2" r:id="rId2"/>
     <sheet name="Ramkol3" sheetId="3" r:id="rId3"/>
     <sheet name="Ramkol4" sheetId="4" r:id="rId4"/>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,14 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,16 +222,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{44105032-96B2-4BC2-A511-C9A6AA6330CE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,110 +545,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA0BB18-B757-4EDC-87F9-26C5231FB003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0118C0F-998D-4495-83E4-25104479ED95}">
   <dimension ref="V4:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="AF4" sqref="AF4:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.21875" customWidth="1"/>
+    <col min="1" max="23" width="8.88671875" style="3"/>
+    <col min="24" max="24" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="3"/>
+    <col min="26" max="26" width="9.21875" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="4" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="V4" t="s">
+      <c r="V4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="V5">
+      <c r="V5" s="3">
         <f>AI7/AI8</f>
         <v>0.98305396377899679</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="3">
         <f>AI8*AG6</f>
         <v>9.0556575000000008E-6</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="3">
         <f>AH5/AI8</f>
         <v>1.7199358522558965E-4</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="3">
         <f>841.9*10^-3</f>
         <v>0.84189999999999998</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="3">
         <v>82.95</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="AF6" t="s">
+      <c r="AF6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="3">
         <f>1.85*10^-9</f>
         <v>1.8500000000000002E-9</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="AI7">
+      <c r="AI7" s="3">
         <f>4.812*10^3</f>
         <v>4812</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="AI8">
+      <c r="AI8" s="3">
         <f>AI5+AI7</f>
         <v>4894.95</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="AF10" t="s">
+      <c r="AF10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="3">
         <v>2</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/היענות לתדר ותהודה/חלק ב היענות תדר ותהודה.xlsx
+++ b/היענות לתדר ותהודה/חלק ב היענות תדר ותהודה.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\אוניברסיטת תל אביב\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30361B-D76F-493E-A155-AF580D42DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4366F9D-3FD2-41CA-ACA6-8E757F23B737}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Ramkol5" sheetId="5" r:id="rId5"/>
     <sheet name="Ramkol6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>מדידות</t>
   </si>
@@ -161,16 +160,34 @@
   <si>
     <t>קיבול(F)</t>
   </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>dc res</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>L[H]</t>
+  </si>
+  <si>
+    <t>df/f</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -191,7 +208,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -199,7 +216,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -234,7 +251,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{44105032-96B2-4BC2-A511-C9A6AA6330CE}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,23 +562,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0118C0F-998D-4495-83E4-25104479ED95}">
-  <dimension ref="V4:AJ10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="V4:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4:AJ10"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="8.88671875" style="3"/>
+    <col min="1" max="23" width="8.875" style="3"/>
     <col min="24" max="24" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="3"/>
-    <col min="26" max="26" width="9.21875" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="3"/>
+    <col min="25" max="25" width="8.875" style="3"/>
+    <col min="26" max="26" width="9.25" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="22:36" ht="15" x14ac:dyDescent="0.25">
       <c r="V4" s="3" t="s">
         <v>21</v>
       </c>
@@ -584,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V5" s="3">
         <f>AI7/AI8</f>
         <v>0.98305396377899679</v>
@@ -614,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="22:36" x14ac:dyDescent="0.2">
       <c r="AF6" s="3" t="s">
         <v>4</v>
       </c>
@@ -626,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="22:36" x14ac:dyDescent="0.2">
       <c r="AI7" s="3">
         <f>4.812*10^3</f>
         <v>4812</v>
@@ -635,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="22:36" x14ac:dyDescent="0.2">
       <c r="AI8" s="3">
         <f>AI5+AI7</f>
         <v>4894.95</v>
@@ -644,7 +661,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="22:36" x14ac:dyDescent="0.2">
+      <c r="AH9" s="3">
+        <f>AH5*0.01+0.0005</f>
+        <v>8.9189999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="22:36" x14ac:dyDescent="0.2">
       <c r="AF10" s="3" t="s">
         <v>7</v>
       </c>
@@ -653,6 +676,24 @@
       </c>
       <c r="AJ10" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="22:36" x14ac:dyDescent="0.2">
+      <c r="AI14" s="3">
+        <f>AI5*0.012+0.05</f>
+        <v>1.0454000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="22:36" x14ac:dyDescent="0.2">
+      <c r="AI15" s="3">
+        <f>AI7*0.012+5</f>
+        <v>62.744</v>
+      </c>
+    </row>
+    <row r="17" spans="35:35" x14ac:dyDescent="0.2">
+      <c r="AI17" s="3">
+        <f>SQRT(AI14^2+AI15^2)</f>
+        <v>62.752708285459683</v>
       </c>
     </row>
   </sheetData>
@@ -662,92 +703,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98878528-6E3E-4813-9A16-202175DAEC98}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.557</v>
       </c>
       <c r="B2">
-        <v>841.9</v>
+        <f>841.9*10^-3</f>
+        <v>0.84189999999999998</v>
       </c>
       <c r="C2">
+        <f>B2*0.01+0.0005</f>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D2">
+        <f>21.7</f>
         <v>21.7</v>
       </c>
-      <c r="D2">
-        <f>1/SQRT(B2*10^-9*C2*10^-3)</f>
+      <c r="E2">
+        <f>D2*0.012+0.05</f>
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="F2">
+        <f>1/SQRT(B2*D2*10^-9)</f>
         <v>7398.4352676746712</v>
       </c>
-      <c r="E2">
-        <f>D2/(2*PI())</f>
+      <c r="G2">
+        <f>F2/(2*PI())</f>
         <v>1177.4975439958337</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>SQRT((C2/(2*(B2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(B2)))^2)</f>
+        <v>65.845995007674517</v>
+      </c>
+      <c r="I2">
+        <f>100*H2/G2</f>
+        <v>5.5920282248934781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10.557</v>
       </c>
       <c r="B3">
-        <v>841.9</v>
+        <f t="shared" ref="B3:B4" si="0">841.9*10^-3</f>
+        <v>0.84189999999999998</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C4" si="1">B3*0.01+0.0005</f>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D3">
         <v>87.26</v>
       </c>
-      <c r="D3">
-        <f>1/SQRT(B3*10^-9*C3*10^-3)</f>
-        <v>3689.454348056106</v>
-      </c>
       <c r="E3">
-        <f>D3/(2*PI())</f>
-        <v>587.19489680501533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>D3*0.012+0.05</f>
+        <v>1.0971200000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="2">1/SQRT(B3*D3*10^-9)</f>
+        <v>3689.4543480561069</v>
+      </c>
+      <c r="G3">
+        <f>F3/(2*PI())</f>
+        <v>587.19489680501556</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="3">SQRT((C3/(2*(B3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(B3)))^2)</f>
+        <v>30.329409678893867</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="4">100*H3/G3</f>
+        <v>5.1651350929511022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.557</v>
       </c>
       <c r="B4">
-        <v>841.9</v>
+        <f t="shared" si="0"/>
+        <v>0.84189999999999998</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D4">
         <v>5.1210000000000004</v>
       </c>
-      <c r="D4">
-        <f>1/SQRT(B4*10^-9*C4*10^-3)</f>
+      <c r="E4">
+        <f>D4*0.012+0.005</f>
+        <v>6.6452000000000011E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
         <v>15229.735375917237</v>
       </c>
-      <c r="E4">
-        <f>D4/(2*PI())</f>
+      <c r="G4">
+        <f>F4/(2*PI())</f>
         <v>2423.8876670587333</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>6</v>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>127.56138321309666</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>5.2626771837114896</v>
       </c>
     </row>
   </sheetData>
@@ -757,87 +860,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2464AD-D69A-48CC-B51D-F2F7EE209284}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.557</v>
       </c>
-      <c r="B2">
-        <v>841.9</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D2">
         <v>69.89</v>
       </c>
-      <c r="D2">
-        <f>1/SQRT(B2*10^-9*C2*10^-3)</f>
-        <v>4122.5148147011259</v>
-      </c>
       <c r="E2">
-        <f>D2/(2*PI())</f>
-        <v>656.11861072925319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <f>SQRT((D2*0.012+0.05)^2+B8^2)</f>
+        <v>0.89288977057641328</v>
+      </c>
+      <c r="F2">
+        <f>1/SQRT(B2*10^-9*D2*10^-3)</f>
+        <v>130365.36502242557</v>
+      </c>
+      <c r="G2">
+        <f>F2/(2*PI())</f>
+        <v>20748.292251298306</v>
+      </c>
+      <c r="H2">
+        <f>SQRT((B2/(2*(A2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(A2)))^2)</f>
+        <v>47.012655578422255</v>
+      </c>
+      <c r="I2">
+        <f>100*H2/G2</f>
+        <v>0.22658566309466013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10.557</v>
       </c>
-      <c r="B3">
-        <v>841.9</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D3">
         <v>17.100000000000001</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">1/SQRT(B3*10^-9*C3*10^-3)</f>
-        <v>8334.3491440400012</v>
-      </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="1">D3/(2*PI())</f>
-        <v>1326.452863727673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>SQRT((D3*0.012+0.05)^2+B8^2)</f>
+        <v>0.26949404446109759</v>
+      </c>
+      <c r="F3">
+        <f>1/SQRT(B3*10^-9*D3*10^-3)</f>
+        <v>263555.26110241149</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">F3/(2*PI())</f>
+        <v>41946.122582323922</v>
+      </c>
+      <c r="H3">
+        <f>SQRT((B3/(2*(A3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(A3)))^2)</f>
+        <v>95.662284363351986</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="1">100*H3/G3</f>
+        <v>0.2280598979693633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.557</v>
       </c>
-      <c r="B4">
-        <v>841.9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D4">
         <v>3.8410000000000002</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <f>SQRT((D4*0.012+0.05)^2+B8^2)</f>
+        <v>0.12935869690129073</v>
+      </c>
+      <c r="F4">
+        <f>1/SQRT(B4*10^-9*D4*10^-3)</f>
+        <v>556093.20918515872</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>17585.211323775689</v>
-      </c>
-      <c r="E4">
+        <v>88504.983061653387</v>
+      </c>
+      <c r="H4">
+        <f>SQRT((B4/(2*(A4^1.5)*SQRT(D4*10^-9)))^2+((E4*10^-9)/(2*((D4*10^-9)^1.5)*SQRT(A4)))^2)</f>
+        <v>214.94826350997238</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="1"/>
-        <v>2798.7733074944736</v>
+        <v>0.24286571905249385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f>0.3/SQRT(12)</f>
+        <v>8.6602540378443865E-2</v>
       </c>
     </row>
   </sheetData>
@@ -846,16 +1015,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A0CD58-41BB-4DEC-B408-78D62842CD46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -872,7 +1041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.557</v>
       </c>
@@ -891,7 +1060,7 @@
         <v>2956.1152748281024</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10.557</v>
       </c>
@@ -902,15 +1071,15 @@
         <v>15.182</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">1/SQRT(B3*10^-9*C3*10^-3)</f>
+        <f>1/SQRT(B3*10^-9*C3*10^-3)</f>
         <v>8845.1510066784376</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="1">D3/(2*PI())</f>
+        <f t="shared" ref="E3:E4" si="0">D3/(2*PI())</f>
         <v>1407.7495051071276</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.557</v>
       </c>
@@ -921,11 +1090,11 @@
         <v>62.16</v>
       </c>
       <c r="D4">
+        <f>1/SQRT(B4*10^-9*C4*10^-3)</f>
+        <v>4371.3365314339417</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>4371.3365314339417</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
         <v>695.71981689589211</v>
       </c>
     </row>
@@ -935,16 +1104,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9984CD-6374-4D24-890A-442440D9178E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -961,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.557</v>
       </c>
@@ -980,7 +1149,7 @@
         <v>3368.8758995213379</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10.557</v>
       </c>
@@ -999,7 +1168,7 @@
         <v>1586.1433835692169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.557</v>
       </c>
@@ -1024,16 +1193,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DACCD36-09DF-4C7D-8F5C-53DC7BF8D80D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10.557</v>
       </c>
@@ -1069,7 +1238,7 @@
         <v>1790.0166917172617</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>10.557</v>
       </c>
@@ -1088,7 +1257,7 @@
         <v>879.4579441012088</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>

--- a/היענות לתדר ותהודה/חלק ב היענות תדר ותהודה.xlsx
+++ b/היענות לתדר ותהודה/חלק ב היענות תדר ותהודה.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>מדידות</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>dc</t>
-  </si>
-  <si>
-    <t>dc res</t>
   </si>
   <si>
     <t>df</t>
@@ -704,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,10 +717,10 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -738,10 +735,10 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -761,8 +758,8 @@
         <v>21.7</v>
       </c>
       <c r="E2">
-        <f>D2*0.012+0.05</f>
-        <v>0.31040000000000001</v>
+        <f>D2*0.012+0.005</f>
+        <v>0.26540000000000002</v>
       </c>
       <c r="F2">
         <f>1/SQRT(B2*D2*10^-9)</f>
@@ -773,12 +770,12 @@
         <v>1177.4975439958337</v>
       </c>
       <c r="H2">
-        <f>SQRT((C2/(2*(B2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(B2)))^2)</f>
-        <v>65.845995007674517</v>
+        <f>SQRT((C2/(2*(B2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(B2)))^2)/(2*PI())</f>
+        <v>9.5263417595947875</v>
       </c>
       <c r="I2">
         <f>100*H2/G2</f>
-        <v>5.5920282248934781</v>
+        <v>0.80903283477493981</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -797,8 +794,8 @@
         <v>87.26</v>
       </c>
       <c r="E3">
-        <f>D3*0.012+0.05</f>
-        <v>1.0971200000000001</v>
+        <f>D3*0.012+0.005</f>
+        <v>1.0521199999999999</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="2">1/SQRT(B3*D3*10^-9)</f>
@@ -809,12 +806,12 @@
         <v>587.19489680501556</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="3">SQRT((C3/(2*(B3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(B3)))^2)</f>
-        <v>30.329409678893867</v>
+        <f t="shared" ref="H3:H4" si="3">SQRT((C3/(2*(B3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(B3)))^2)/(2*PI())</f>
+        <v>4.712299321462214</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" si="4">100*H3/G3</f>
-        <v>5.1651350929511022</v>
+        <v>0.80251026483749988</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -846,11 +843,23 @@
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>127.56138321309666</v>
+        <v>20.302024686003854</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>5.2626771837114896</v>
+        <v>0.83758108768461814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>G2/G3</f>
+        <v>2.0052925364350274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>ABS(587.33-G3)/SQRT(H3^2+(0.01/SQRT(12)))</f>
+        <v>2.8668470509042986E-2</v>
       </c>
     </row>
   </sheetData>
@@ -861,10 +870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,10 +883,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -892,10 +901,10 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -912,24 +921,24 @@
         <v>69.89</v>
       </c>
       <c r="E2">
-        <f>SQRT((D2*0.012+0.05)^2+B8^2)</f>
-        <v>0.89288977057641328</v>
+        <f>D2*0.012+0.0005</f>
+        <v>0.83917999999999993</v>
       </c>
       <c r="F2">
-        <f>1/SQRT(B2*10^-9*D2*10^-3)</f>
-        <v>130365.36502242557</v>
+        <f>1/SQRT(B2*10^-9*D2)</f>
+        <v>4122.5148147011259</v>
       </c>
       <c r="G2">
         <f>F2/(2*PI())</f>
-        <v>20748.292251298306</v>
+        <v>656.11861072925319</v>
       </c>
       <c r="H2">
-        <f>SQRT((B2/(2*(A2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(A2)))^2)</f>
-        <v>47.012655578422255</v>
+        <f>SQRT((B2/(2*(A2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(A2)))^2)/(2*PI())</f>
+        <v>7.4713653757633631</v>
       </c>
       <c r="I2">
         <f>100*H2/G2</f>
-        <v>0.22658566309466013</v>
+        <v>1.1387217575583168</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -946,24 +955,24 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E3">
-        <f>SQRT((D3*0.012+0.05)^2+B8^2)</f>
-        <v>0.26949404446109759</v>
+        <f t="shared" ref="E3:E4" si="0">D3*0.012+0.0005</f>
+        <v>0.20570000000000002</v>
       </c>
       <c r="F3">
-        <f>1/SQRT(B3*10^-9*D3*10^-3)</f>
-        <v>263555.26110241149</v>
+        <f t="shared" ref="F3:F4" si="1">1/SQRT(B3*10^-9*D3)</f>
+        <v>8334.3491440399994</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">F3/(2*PI())</f>
-        <v>41946.122582323922</v>
+        <f t="shared" ref="G3:G4" si="2">F3/(2*PI())</f>
+        <v>1326.4528637276728</v>
       </c>
       <c r="H3">
-        <f>SQRT((B3/(2*(A3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(A3)))^2)</f>
-        <v>95.662284363351986</v>
+        <f t="shared" ref="H3:H4" si="3">SQRT((B3/(2*(A3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(A3)))^2)/(2*PI())</f>
+        <v>15.105223780820062</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I4" si="1">100*H3/G3</f>
-        <v>0.2280598979693633</v>
+        <f t="shared" ref="I3:I4" si="4">100*H3/G3</f>
+        <v>1.1387682287006042</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -980,33 +989,36 @@
         <v>3.8410000000000002</v>
       </c>
       <c r="E4">
-        <f>SQRT((D4*0.012+0.05)^2+B8^2)</f>
-        <v>0.12935869690129073</v>
+        <f t="shared" si="0"/>
+        <v>4.6592000000000001E-2</v>
       </c>
       <c r="F4">
-        <f>1/SQRT(B4*10^-9*D4*10^-3)</f>
-        <v>556093.20918515872</v>
+        <f t="shared" si="1"/>
+        <v>17585.211323775689</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>88504.983061653387</v>
+        <f t="shared" si="2"/>
+        <v>2798.7733074944736</v>
       </c>
       <c r="H4">
-        <f>SQRT((B4/(2*(A4^1.5)*SQRT(D4*10^-9)))^2+((E4*10^-9)/(2*((D4*10^-9)^1.5)*SQRT(A4)))^2)</f>
-        <v>214.94826350997238</v>
+        <f t="shared" si="3"/>
+        <v>31.87751498831879</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0.24286571905249385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <f>0.3/SQRT(12)</f>
-        <v>8.6602540378443865E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.1389816711113441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>G3/G2</f>
+        <v>2.0216662689286715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>(659.26-G2)/SQRT(H2^2+(0.01/SQRT(12)))</f>
+        <v>0.42044631586921616</v>
       </c>
     </row>
   </sheetData>
@@ -1016,86 +1028,164 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.557</v>
       </c>
       <c r="B2">
-        <v>841.9</v>
-      </c>
-      <c r="C2">
+        <f>841.9*10^-3</f>
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D2">
         <v>3.4430000000000001</v>
       </c>
-      <c r="D2">
-        <f>1/SQRT(B2*10^-9*C2*10^-3)</f>
+      <c r="E2">
+        <f>D2*0.012+0.0005</f>
+        <v>4.1815999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <f>1/SQRT(B2*10^-9*D2)</f>
         <v>18573.820061129078</v>
       </c>
-      <c r="E2">
-        <f>D2/(2*PI())</f>
+      <c r="G2">
+        <f>F2/(2*PI())</f>
         <v>2956.1152748281024</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>SQRT((B2/(2*(A2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(A2)))^2)/(2*PI())</f>
+        <v>33.67055623295915</v>
+      </c>
+      <c r="I2">
+        <f>100*H2/G2</f>
+        <v>1.1390136413038592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10.557</v>
       </c>
       <c r="B3">
-        <v>841.9</v>
-      </c>
-      <c r="C3">
+        <f t="shared" ref="B3:B4" si="0">841.9*10^-3</f>
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D3">
         <v>15.182</v>
       </c>
-      <c r="D3">
-        <f>1/SQRT(B3*10^-9*C3*10^-3)</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="1">D3*0.012+0.0005</f>
+        <v>0.18268400000000001</v>
+      </c>
+      <c r="F3">
+        <f>1/SQRT(B3*10^-9*D3)</f>
         <v>8845.1510066784376</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="0">D3/(2*PI())</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="2">F3/(2*PI())</f>
         <v>1407.7495051071276</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="3">SQRT((B3/(2*(A3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(A3)))^2)/(2*PI())</f>
+        <v>16.031113637339153</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="4">100*H3/G3</f>
+        <v>1.1387760094519948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.557</v>
       </c>
       <c r="B4">
-        <v>841.9</v>
-      </c>
-      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D4">
         <v>62.16</v>
       </c>
-      <c r="D4">
-        <f>1/SQRT(B4*10^-9*C4*10^-3)</f>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.74641999999999997</v>
+      </c>
+      <c r="F4">
+        <f>1/SQRT(B4*10^-9*D4)</f>
         <v>4371.3365314339417</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="G4">
+        <f t="shared" si="2"/>
         <v>695.71981689589211</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>7.9223259389969254</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>1.1387236279029878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>G3/G4</f>
+        <v>2.0234431604781844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f>100*(698.46-G4)/698.46</f>
+        <v>0.39231782838071294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>(698.46-G4)/SQRT(H4^2+(0.01/SQRT(12)))</f>
+        <v>0.34587318307605375</v>
       </c>
     </row>
   </sheetData>
@@ -1105,86 +1195,161 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.557</v>
       </c>
       <c r="B2">
-        <v>841.9</v>
+        <f>841.9*10^-3</f>
+        <v>0.84189999999999998</v>
       </c>
       <c r="C2">
+        <f>B2*0.01+0.0005</f>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D2">
         <v>2.6509999999999998</v>
       </c>
-      <c r="D2">
-        <f>1/SQRT(B2*10^-9*C2*10^-3)</f>
+      <c r="E2">
+        <f>D2*0.012+0.0005</f>
+        <v>3.2312E-2</v>
+      </c>
+      <c r="F2">
+        <f>1/SQRT(B2*10^-9*D2)</f>
         <v>21167.271553583883</v>
       </c>
-      <c r="E2">
-        <f>D2/(2*PI())</f>
+      <c r="G2">
+        <f>F2/(2*PI())</f>
         <v>3368.8758995213379</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>SQRT((B2/(2*(A2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(A2)))^2)/(2*PI())</f>
+        <v>38.375068683325225</v>
+      </c>
+      <c r="I2">
+        <f>100*H2/G2</f>
+        <v>1.1391060350064452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10.557</v>
       </c>
       <c r="B3">
-        <v>841.9</v>
+        <f t="shared" ref="B3:B4" si="0">841.9*10^-3</f>
+        <v>0.84189999999999998</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C4" si="1">B3*0.01+0.0005</f>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D3">
         <v>11.959</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">1/SQRT(B3*10^-9*C3*10^-3)</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="2">D3*0.012+0.0005</f>
+        <v>0.144008</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="3">1/SQRT(B3*10^-9*D3)</f>
         <v>9966.0328027222185</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="1">D3/(2*PI())</f>
+      <c r="G3">
+        <f t="shared" ref="G3" si="4">F3/(2*PI())</f>
         <v>1586.1433835692169</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="5">SQRT((B3/(2*(A3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(A3)))^2)/(2*PI())</f>
+        <v>18.062917014714454</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="6">100*H3/G3</f>
+        <v>1.1387947143888342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.557</v>
       </c>
       <c r="B4">
-        <v>841.9</v>
+        <f t="shared" si="0"/>
+        <v>0.84189999999999998</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D4">
         <v>49.15</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.59029999999999994</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
         <v>4915.9559666509303</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
+      <c r="G4">
+        <f>F4/(2*PI())</f>
         <v>782.39869211459222</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>8.9093937976676099</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>1.1387281046684976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>G3/G4</f>
+        <v>2.027282764599645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>(783.99-G4)/SQRT(H4^2+(0.01/SQRT(12)))</f>
+        <v>0.17860687117615343</v>
       </c>
     </row>
   </sheetData>
@@ -1194,75 +1359,126 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10.557</v>
       </c>
-      <c r="B2" s="2">
-        <v>841.9</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <f>841.9*10^-3</f>
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C2">
+        <f>B2*0.01+0.0005</f>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D2" s="2">
         <v>9.39</v>
       </c>
-      <c r="D2" s="2">
-        <f>1/SQRT(B2*10^-9*C2*10^-3)</f>
+      <c r="E2">
+        <f>D2*0.012+0.0005</f>
+        <v>0.11318</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1/SQRT(B2*10^-9*D2)</f>
         <v>11247.006577004109</v>
       </c>
-      <c r="E2" s="2">
-        <f>D2/(2*PI())</f>
+      <c r="G2" s="2">
+        <f>F2/(2*PI())</f>
         <v>1790.0166917172617</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>SQRT((B2/(2*(A2^1.5)*SQRT(D2*10^-9)))^2+((E2*10^-9)/(2*((D2*10^-9)^1.5)*SQRT(A2)))^2)/(2*PI())</f>
+        <v>20.385047327656757</v>
+      </c>
+      <c r="I2">
+        <f>100*H2/G2</f>
+        <v>1.1388188401807726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>10.557</v>
       </c>
-      <c r="B3" s="2">
-        <v>841.9</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3">
+        <f t="shared" ref="B3" si="0">841.9*10^-3</f>
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3" si="1">B3*0.01+0.0005</f>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="D3" s="2">
         <v>38.9</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3" si="0">1/SQRT(B3*10^-9*C3*10^-3)</f>
+      <c r="E3">
+        <f t="shared" ref="E3" si="2">D3*0.012+0.0005</f>
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <f>1/SQRT(B3*10^-9*D3)</f>
         <v>5525.7972326590807</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3" si="1">D3/(2*PI())</f>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3" si="3">F3/(2*PI())</f>
         <v>879.4579441012088</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="H3">
+        <f>SQRT((B3/(2*(A3^1.5)*SQRT(D3*10^-9)))^2+((E3*10^-9)/(2*((D3*10^-9)^1.5)*SQRT(A3)))^2)/(2*PI())</f>
+        <v>10.014684354328054</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="4">100*H3/G3</f>
+        <v>1.1387337417894261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>G2/G3</f>
+        <v>2.035363605188226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>(880-G3)/SQRT(H3^2+(0.01/SQRT(12)))</f>
+        <v>5.4125330245645399E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
